--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3437046.732163674</v>
+        <v>3434474.777645767</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>108.9701216524068</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>9.283029612712731</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>141.901108712181</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>52.33159926298225</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>137.8420922408347</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>139.6528551206849</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>52.10844059186255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>234.5779278877462</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>35.67764259955304</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>55.90301252244922</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>90.04875807993751</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>66.85274231757913</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
     <row r="14">
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>70.04554881124426</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>81.2968334937059</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,7 +2251,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>126.6321535627883</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>101.1785556175227</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>42.14967908986335</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>75.00788511618082</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>89.67992556049255</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3199,13 +3199,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>19.51567534720864</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.0270735093607</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3673,13 +3673,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,13 +3718,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>187.792060649081</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>137.9640996397611</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,7 +3904,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,16 +3955,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4198,10 +4198,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>193.9962538432431</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2102.110298549051</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1749.341643278937</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1749.341643278937</v>
+        <v>1300.338121270757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,7 +4410,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598708</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>555.3776118154288</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>555.3776118154288</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>405.2609724030931</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>555.3776118154288</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>555.3776118154288</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>555.3776118154288</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>555.3776118154288</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>555.3776118154288</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1222.906241876376</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>485.9377865134672</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>127.6720879067167</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>127.6720879067167</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>120.7265871575132</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>106.8031830961041</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>106.8031830961041</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2557.914654411319</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2339.279987383381</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2339.279987383381</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2339.279987383381</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>1986.511332113267</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>1613.045573852188</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y5" t="n">
-        <v>1222.906241876376</v>
+        <v>854.9003034538789</v>
       </c>
     </row>
     <row r="6">
@@ -4644,13 +4644,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1352.258819987542</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="C8" t="n">
-        <v>983.2963030471299</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="D8" t="n">
-        <v>625.0306044403794</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E8" t="n">
-        <v>625.0306044403794</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>618.085103691176</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2606.082378720884</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2606.082378720884</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2352.320593358976</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>2021.257706015405</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312743</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="X8" t="n">
-        <v>1738.858660051663</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="Y8" t="n">
-        <v>1738.858660051663</v>
+        <v>1668.489050745291</v>
       </c>
     </row>
     <row r="9">
@@ -4893,10 +4893,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>110.4106712369798</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>110.4106712369798</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>110.4106712369798</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>110.4106712369798</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5021,40 +5021,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5072,7 +5072,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>691.195150674524</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.435061037252</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2159.833596060193</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1870.758369404391</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.073881198504</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1326.656711161544</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1098.667160263526</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263526</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5267,37 +5267,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5501,34 +5501,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5598,19 +5598,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438167</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6918836311999</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>632.755700703293</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
         <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614396</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614396</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>506.2737913123329</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938885</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>835.5837926935567</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>666.6476097656498</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>516.530970353314</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>368.6178767709209</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>221.7279292730106</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602305</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1466.014387565344</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1238.024836667327</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,16 +5984,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>741.8431516380895</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>572.9069687101826</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611859</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683292</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1058.183521551621</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1655.562009178173</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,22 +6452,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6543,19 +6543,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349513</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1550.665004989558</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2102.574735228845</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>642.8692823226939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>473.9330993947871</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>323.8164599824514</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2106.476762093131</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1817.401535437329</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1562.717047231442</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1273.299877194481</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>824.5177471529337</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123343</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>783.5579673960132</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>614.6217844681063</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>464.5051450557705</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1413.9885622678</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>1185.999011369783</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>965.2064322262529</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6938,16 +6938,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>634.5603720565526</v>
+        <v>740.5562989961522</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683105</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2546.729326731941</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>991.7436897307817</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>822.8075068028749</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1394.184733704551</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1173.392154561021</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>806.8386896933887</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7366,16 +7366,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7412,7 +7412,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1466.014387565343</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>1238.024836667326</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>1238.024836667326</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093296</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.83767850099729e-12</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K17" t="n">
-        <v>-1.894521919858098e-12</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11060,13 +11060,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>114.1735436840654</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>216.1389255779999</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>67.31863952450645</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>38.89198472948055</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>47.43691740068968</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>183.5599762991738</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>211.5151132204102</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>127.7255247667957</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,10 +25087,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>267.0073229893824</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.58839950885167</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,13 +25606,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>37.9175947399562</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.86788054217615</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,16 +25843,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>31.71340154579403</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>690344.2174915917</v>
+        <v>690344.2174915916</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>690344.2174915917</v>
+        <v>690344.2174915916</v>
       </c>
     </row>
     <row r="7">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>690344.2174915916</v>
+        <v>690344.2174915915</v>
       </c>
     </row>
     <row r="15">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778547</v>
@@ -26320,40 +26320,40 @@
         <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.939721005</v>
       </c>
       <c r="G2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="O2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="J2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210057</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210052</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577093</v>
+        <v>944372.7777577088</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,37 +26424,37 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670407</v>
+        <v>5067.592601670429</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.5926016704</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670418</v>
+        <v>5067.592601670445</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.59260167042</v>
+        <v>5067.592601670461</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670407</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670418</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
         <v>5067.592601670438</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670464</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670491</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670428</v>
+        <v>5067.592601670461</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670467</v>
+        <v>5067.592601670445</v>
       </c>
       <c r="P4" t="n">
         <v>5067.592601670437</v>
@@ -26528,40 +26528,40 @@
         <v>455014.0088867138</v>
       </c>
       <c r="E6" t="n">
-        <v>-324130.9604622813</v>
+        <v>-324165.6983877168</v>
       </c>
       <c r="F6" t="n">
-        <v>620241.8172954279</v>
+        <v>620207.0793699919</v>
       </c>
       <c r="G6" t="n">
-        <v>620241.8172954279</v>
+        <v>620207.0793699925</v>
       </c>
       <c r="H6" t="n">
-        <v>620241.8172954277</v>
+        <v>620207.079369992</v>
       </c>
       <c r="I6" t="n">
-        <v>620241.8172954278</v>
+        <v>620207.0793699921</v>
       </c>
       <c r="J6" t="n">
-        <v>443818.5981028352</v>
+        <v>443783.8601773989</v>
       </c>
       <c r="K6" t="n">
-        <v>620241.8172954277</v>
+        <v>620207.079369992</v>
       </c>
       <c r="L6" t="n">
-        <v>620241.8172954279</v>
+        <v>620207.0793699926</v>
       </c>
       <c r="M6" t="n">
-        <v>496033.306587369</v>
+        <v>495998.5686619335</v>
       </c>
       <c r="N6" t="n">
-        <v>620241.8172954282</v>
+        <v>620207.079369992</v>
       </c>
       <c r="O6" t="n">
-        <v>620241.8172954278</v>
+        <v>620207.0793699923</v>
       </c>
       <c r="P6" t="n">
-        <v>620241.8172954277</v>
+        <v>620207.0793699921</v>
       </c>
     </row>
   </sheetData>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245876</v>
+        <v>990.2318361245871</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>218.7821368177281</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>360.4480710657563</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>144.3807655297967</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>99.599716981879</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>36.57362056813685</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>112.4847882031431</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>166.4762127602322</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>179.2062421330488</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>138.7380702094185</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>111.4067897366017</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>196.2331161620402</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>364.3208035245826</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>354.9153144485695</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,34 +32318,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>404.0195168876583</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>377.6350660745944</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.87657862147</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>622.4211036182644</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,22 +33263,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>188.4731159523453</v>
       </c>
       <c r="P30" t="n">
-        <v>316.3837382263848</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
         <v>375.5996128485291</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33494,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630686</v>
       </c>
       <c r="M33" t="n">
-        <v>407.2177391203972</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33734,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>345.6771571865338</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>152.0754244981393</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>200.3460366764704</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,13 +34451,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>281.0363767960755</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,13 +35021,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856235</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146267</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>224.3390294385611</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>220.9409070342392</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036775</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>265.4651371077841</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902929</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>235.5010321525761</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071398</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>483.8667238383903</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>45.87687150790087</v>
       </c>
       <c r="P30" t="n">
-        <v>182.4093308120545</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625076</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831944</v>
       </c>
       <c r="M33" t="n">
-        <v>265.0837051983789</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>207.1227774066596</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>6.395920534175339</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>57.74979223202591</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,13 +38099,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>138.9023428740572</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
